--- a/default_settings/Config.xlsx
+++ b/default_settings/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE\Configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AF79B7-D000-49C8-9E25-1C46A58E1834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F53DF02-DFB7-4DE6-8CF1-716304A558CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>42c</t>
+  </si>
+  <si>
+    <t>ASPIS Iron-88 benchmark</t>
+  </si>
+  <si>
+    <t>ASPIS-Fe88</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,6 +499,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EEB530-2BB1-44BD-96B5-AB98331CD0CC}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,10 +1420,10 @@
         <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="12">
         <v>1000000000</v>
@@ -1431,7 +1440,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>29</v>
@@ -1443,6 +1452,32 @@
         <v>50000000</v>
       </c>
       <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="28" t="s">
         <v>42</v>
       </c>
     </row>

--- a/default_settings/Config.xlsx
+++ b/default_settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F53DF02-DFB7-4DE6-8CF1-716304A558CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12106C18-C535-4356-B30E-1BA85CA2E9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -204,9 +213,6 @@
     <t>FENDL 3.1d</t>
   </si>
   <si>
-    <t>FENDL 3.2beta</t>
-  </si>
-  <si>
     <t>ENDF-VIII</t>
   </si>
   <si>
@@ -243,9 +249,6 @@
     <t>ENDF-VII.1x</t>
   </si>
   <si>
-    <t>FNS</t>
-  </si>
-  <si>
     <t>FNG-BKT</t>
   </si>
   <si>
@@ -268,6 +271,33 @@
   </si>
   <si>
     <t>ASPIS-Fe88</t>
+  </si>
+  <si>
+    <t>TUD-Fe</t>
+  </si>
+  <si>
+    <t>Iron Slab Experiment (TUD)</t>
+  </si>
+  <si>
+    <t>TUD Spectra Measurements (FNG Bulk Shield)</t>
+  </si>
+  <si>
+    <t>TUD-FNG</t>
+  </si>
+  <si>
+    <t>FNG/TUD Tungsten Experiment</t>
+  </si>
+  <si>
+    <t>TUD-W</t>
+  </si>
+  <si>
+    <t>FNS-TOF</t>
+  </si>
+  <si>
+    <t>FNS Time-of-Flight Experiment</t>
+  </si>
+  <si>
+    <t>FENDL 3.2b</t>
   </si>
 </sst>
 </file>
@@ -425,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,7 +476,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -461,9 +490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -488,20 +514,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,10 +853,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -897,271 +920,271 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="14" customWidth="1"/>
-    <col min="8" max="9" width="21.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="19"/>
-    <col min="11" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="38" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="13" customWidth="1"/>
+    <col min="8" max="9" width="21.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="17"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19">
+      <c r="C4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17">
         <v>500</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17">
         <v>10</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="C5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="18">
         <v>50000000</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="C6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="18">
         <v>10000000</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18">
         <v>10000000</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="C8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="18">
         <v>100000000</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="18">
         <v>500000000</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="C10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="18">
         <v>1000</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
         <v>5</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1175,15 +1198,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EEB530-2BB1-44BD-96B5-AB98331CD0CC}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
@@ -1194,238 +1217,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11">
         <v>10000000</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="12">
-        <v>500000000</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="11">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="B6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11">
         <v>100000000</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="A7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="11">
         <v>100000000</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="11">
         <v>100000000</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="A9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11">
         <v>100000000</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="A10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="11">
         <v>1000000000</v>
       </c>
       <c r="J10" t="s">
@@ -1433,22 +1456,22 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="A11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="11">
         <v>50000000</v>
       </c>
       <c r="J11" t="s">
@@ -1456,28 +1479,94 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="11">
+        <v>100000000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="C13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="11">
         <v>100000000</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="28" t="s">
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="11">
+        <v>100000000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1496,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F03233-EAF0-4262-AA38-EF4B945A3E70}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,13 +1596,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1546,7 +1635,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1565,7 +1654,7 @@
         <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1662,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,23 +1670,23 @@
         <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
